--- a/Rutas_proyecto.xlsx
+++ b/Rutas_proyecto.xlsx
@@ -5,11 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="Hoja2" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="Hoja0" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Hoja1" sheetId="2" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -21,7 +21,148 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="57">
+  <si>
+    <t xml:space="preserve">rutas  request</t>
+  </si>
+  <si>
+    <t xml:space="preserve">consulta </t>
+  </si>
+  <si>
+    <t xml:space="preserve">data response </t>
+  </si>
+  <si>
+    <t xml:space="preserve">verbo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rutas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">historia de usuario </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[iddisenyo, nombredisenyo, descripcion, usuarioid]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INSERT INTO disenyo(iddisenyo, nombredisenyo, descripcion, usuarioid) VALUES (%, %, %, %, %) WHERE usuarioid = %;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/clientes/diseños</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Como cliente quiero crear un diseño para promocionar mi propia marca de ropa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[nombrediseño, descripcion]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPDATE disenyo SET nombredisenyo=?, descripcion=? WHERE iddisenyo=?;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/clientes/disenos/{diseñoId}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como cliente quiero editar mis diseños.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT fechapedido, estadopedido FROM pedido WHERE idpedido;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">estadopedido,fechapedido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/clientes/pedidos/{pedidoId}/estado</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Como cliente quiero seguir el estado de mi pedido para que pueda saber cuándo lo recibiré.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT nombreproducto, precio, imagen FROM producto;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nombreproducto,precio,imagen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GET </t>
+  </si>
+  <si>
+    <t xml:space="preserve">/admin/inventario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como administrador quiero gestionar mi inventario de materiales para asegurarme de tener suficientes existencias del producto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPDATE producto SET  nombreproducto=%, precio=%, imagen=% WHERE imagen = %;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/admin/inventario/{materialId}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DELETE FROM producto WHERE imagen=%;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DELETE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">usuario,contraseña,correo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INSERT INTO public.usuario(nombre, correo, contrasenya) VALUES (%, %, %);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/user</t>
+  </si>
+  <si>
+    <t xml:space="preserve">como usuario quiero registrarme en la pagina para poder crear camisetas personalizadas y acceder a mi cuenta </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT nombre, contrasenya FROM usuario WHERE nombre = %;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nombre, contraseña</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT nombre, correo FROM usuario WHERE nombre = %;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nombre,correo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">como usuario quiero consultar los datos y administrar los datos de mi cuenta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nombre,correo,contraseña</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPDATE usuario SET  nombre=%, correo=%, contrasenya=% WHERE idusuario=%;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DELETE FROM usuario WHERE idusuario =%;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grupo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STAMP ARTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miembros del grupo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cesar león </t>
+  </si>
   <si>
     <t xml:space="preserve">CASOS DE USUARIO</t>
   </si>
@@ -29,27 +170,15 @@
     <t xml:space="preserve">RUTAS </t>
   </si>
   <si>
-    <t xml:space="preserve"> Como cliente quiero crear un diseño para promocionar mi propia marca de ropa.</t>
-  </si>
-  <si>
     <t xml:space="preserve">POST (/clientes/diseños)</t>
   </si>
   <si>
-    <t xml:space="preserve">Como cliente quiero editar mis diseños.</t>
-  </si>
-  <si>
     <t xml:space="preserve">PUT ("/clientes/disenos/{diseñoId}")</t>
   </si>
   <si>
-    <t xml:space="preserve"> Como cliente quiero seguir el estado de mi pedido para que pueda saber cuándo lo recibiré.</t>
-  </si>
-  <si>
     <t xml:space="preserve">GET ("/clientes/pedidos/{pedidoId}/estado")</t>
   </si>
   <si>
-    <t xml:space="preserve">Como administrador quiero gestionar mi inventario de materiales para asegurarme de tener suficientes existencias del producto.</t>
-  </si>
-  <si>
     <t xml:space="preserve">GET ("/admin/inventario") PUT ("/admin/inventario/{materialId}")</t>
   </si>
   <si>
@@ -63,63 +192,6 @@
   </si>
   <si>
     <t xml:space="preserve">GET ("/jefes/clientes/chat") POST ("/jefes/clientes/chat")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rutas  request</t>
-  </si>
-  <si>
-    <t xml:space="preserve">consulta </t>
-  </si>
-  <si>
-    <t xml:space="preserve">data response </t>
-  </si>
-  <si>
-    <t xml:space="preserve">verbo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rutas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">historia de usuario </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">POST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/clientes/diseños</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PUT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/clientes/disenos/{diseñoId}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/clientes/pedidos/{pedidoId}/estado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GET </t>
-  </si>
-  <si>
-    <t xml:space="preserve">/admin/inventario</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> PUT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/admin/inventario/{materialId}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"/admin/informes/ventas"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/jefes/clientes/chat</t>
   </si>
 </sst>
 </file>
@@ -129,7 +201,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,26 +225,21 @@
       <family val="0"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial Unicode MS"/>
-      <family val="0"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -181,17 +248,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFF4000"/>
+        <bgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFD7"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF81ACA6"/>
+        <bgColor rgb="FF9999FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.3999"/>
-        <bgColor rgb="FF99CCFF"/>
+        <bgColor rgb="FF81ACA6"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -248,49 +340,69 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -322,7 +434,7 @@
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFFFFFD7"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
@@ -349,9 +461,9 @@
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FFFF4000"/>
       <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF81ACA6"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
@@ -542,6 +654,271 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:F20"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="70.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="36.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="17.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="33.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="46.95"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="7" style="1" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="22.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F10:F12"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;KffffffPágina &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -550,83 +927,83 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="117.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="68.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="10" width="117.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="10" width="68.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
+      <c r="A1" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
+      <c r="A2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
+      <c r="A3" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
+      <c r="A4" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>9</v>
+      <c r="A5" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>11</v>
+      <c r="A6" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>13</v>
+      <c r="A7" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -637,148 +1014,4 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:F9"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="6" width="20.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="6" width="19.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="6" width="16.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="6" width="17.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="6" width="33.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="6" width="46.95"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="7" style="6" width="11.53"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D3" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D4" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D5" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D6" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D7" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D8" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;Kffffff&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;KffffffPágina &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>
--- a/Rutas_proyecto.xlsx
+++ b/Rutas_proyecto.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="58">
   <si>
     <t xml:space="preserve">rutas  request</t>
   </si>
@@ -162,6 +162,9 @@
   </si>
   <si>
     <t xml:space="preserve">Cesar león </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jeferson  Redondo</t>
   </si>
   <si>
     <t xml:space="preserve">CASOS DE USUARIO</t>
@@ -239,7 +242,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -261,7 +264,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF81ACA6"/>
-        <bgColor rgb="FF9999FF"/>
+        <bgColor rgb="FF729FCF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF729FCF"/>
+        <bgColor rgb="FF81ACA6"/>
       </patternFill>
     </fill>
     <fill>
@@ -340,7 +349,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -369,7 +378,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -381,11 +390,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -432,7 +449,7 @@
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFA9D18E"/>
       <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF729FCF"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFFFD7"/>
       <rgbColor rgb="FFCCFFFF"/>
@@ -654,10 +671,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
+      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -885,18 +902,23 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="10" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="10" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="10" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="11" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -927,83 +949,83 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="10" width="117.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="10" width="68.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="12" width="117.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="12" width="68.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>48</v>
       </c>
+      <c r="B1" s="13" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>49</v>
+      <c r="B2" s="14" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>50</v>
+      <c r="B3" s="14" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>51</v>
+      <c r="B4" s="14" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>52</v>
+      <c r="B5" s="15" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" s="13" t="s">
+      <c r="A6" s="14" t="s">
         <v>54</v>
       </c>
+      <c r="B6" s="15" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="B7" s="14" t="s">
+      <c r="A7" s="16" t="s">
         <v>56</v>
       </c>
+      <c r="B7" s="16" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Rutas_proyecto.xlsx
+++ b/Rutas_proyecto.xlsx
@@ -41,15 +41,60 @@
     <t xml:space="preserve">historia de usuario </t>
   </si>
   <si>
+    <t xml:space="preserve">usuario,contraseña,correo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INSERT INTO usuario(nombre, correo, contrasenya) VALUES (%s, %s, %s);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/user</t>
+  </si>
+  <si>
+    <t xml:space="preserve">como usuario quiero registrarme en la pagina para poder crear camisetas personalizadas y acceder a mi cuenta </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT nombre, contrasenya FROM usuario WHERE nombre = %;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nombre, contraseña</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT nombre, correo FROM usuario WHERE nombre = %;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nombre,correo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">como usuario quiero consultar los datos y administrar los datos de mi cuenta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nombre,correo,contraseña</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPDATE usuario SET  nombre=%, correo=%, contrasenya=% WHERE idusuario=%;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPDATE usuario SET estado = 'inactive' WHERE idusuario = %s;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DELETE</t>
+  </si>
+  <si>
     <t xml:space="preserve">[iddisenyo, nombredisenyo, descripcion, usuarioid]</t>
   </si>
   <si>
     <t xml:space="preserve">INSERT INTO disenyo(iddisenyo, nombredisenyo, descripcion, usuarioid) VALUES (%, %, %, %, %) WHERE usuarioid = %;</t>
   </si>
   <si>
-    <t xml:space="preserve">POST</t>
-  </si>
-  <si>
     <t xml:space="preserve">/clientes/diseños</t>
   </si>
   <si>
@@ -62,9 +107,6 @@
     <t xml:space="preserve">UPDATE disenyo SET nombredisenyo=?, descripcion=? WHERE iddisenyo=?;</t>
   </si>
   <si>
-    <t xml:space="preserve">PUT</t>
-  </si>
-  <si>
     <t xml:space="preserve">/clientes/disenos/{diseñoId}</t>
   </si>
   <si>
@@ -77,9 +119,6 @@
     <t xml:space="preserve">estadopedido,fechapedido</t>
   </si>
   <si>
-    <t xml:space="preserve">GET</t>
-  </si>
-  <si>
     <t xml:space="preserve">/clientes/pedidos/{pedidoId}/estado</t>
   </si>
   <si>
@@ -111,45 +150,6 @@
   </si>
   <si>
     <t xml:space="preserve">DELETE FROM producto WHERE imagen=%;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DELETE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">usuario,contraseña,correo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INSERT INTO public.usuario(nombre, correo, contrasenya) VALUES (%, %, %);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/user</t>
-  </si>
-  <si>
-    <t xml:space="preserve">como usuario quiero registrarme en la pagina para poder crear camisetas personalizadas y acceder a mi cuenta </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SELECT nombre, contrasenya FROM usuario WHERE nombre = %;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nombre, contraseña</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SELECT nombre, correo FROM usuario WHERE nombre = %;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nombre,correo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">como usuario quiero consultar los datos y administrar los datos de mi cuenta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nombre,correo,contraseña</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UPDATE usuario SET  nombre=%, correo=%, contrasenya=% WHERE idusuario=%;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DELETE FROM usuario WHERE idusuario =%;</t>
   </si>
   <si>
     <t xml:space="preserve">Grupo</t>
@@ -349,7 +349,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -358,43 +358,39 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -671,24 +667,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="70.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="36.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="17.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="33.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="26.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="26.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="33.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="46.95"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="7" style="1" width="11.53"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="21.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -708,223 +704,263 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="27.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="22.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
+    <row r="3" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" customFormat="false" ht="28.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4" t="s">
+      <c r="D4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="4" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="27.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="E5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" customFormat="false" ht="24.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4" t="s">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="E6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" customFormat="false" ht="28.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F7" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="4" t="s">
+    <row r="8" customFormat="false" ht="22.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4" t="s">
+      <c r="F8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="5" t="s">
+    </row>
+    <row r="9" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="D9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="4" t="s">
+      <c r="F9" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="8" t="s">
+    </row>
+    <row r="10" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="D10" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="8"/>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4" t="s">
+      <c r="E10" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="F10" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="8" t="s">
+    </row>
+    <row r="11" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
+      <c r="C11" s="3"/>
+      <c r="D11" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="E11" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="8"/>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4" t="s">
+      <c r="F11" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="8"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0"/>
+      <c r="B13" s="0"/>
+      <c r="C13" s="0"/>
+      <c r="D13" s="0"/>
+      <c r="E13" s="0"/>
+      <c r="F13" s="0"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0"/>
+      <c r="B14" s="0"/>
+      <c r="C14" s="0"/>
+      <c r="D14" s="0"/>
+      <c r="E14" s="0"/>
+      <c r="F14" s="0"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0"/>
+      <c r="B15" s="0"/>
+      <c r="C15" s="0"/>
+      <c r="D15" s="0"/>
+      <c r="E15" s="0"/>
+      <c r="F15" s="0"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0"/>
+      <c r="B16" s="0"/>
+      <c r="C16" s="0"/>
+      <c r="D16" s="0"/>
+      <c r="E16" s="0"/>
+      <c r="F16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="9" t="s">
+      <c r="A17" s="0"/>
+      <c r="B17" s="0"/>
+      <c r="C17" s="0"/>
+      <c r="D17" s="0"/>
+      <c r="E17" s="0"/>
+      <c r="F17" s="0"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="10" t="s">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="10" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="10" t="s">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="10" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="10" t="s">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="10" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="11" t="s">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="10" t="s">
         <v>47</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F4:F6"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -949,83 +985,83 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="12" width="117.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="12" width="68.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="11" width="117.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="11" width="68.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="14" t="s">
+      <c r="A2" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="14" t="s">
+      <c r="A3" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="14" t="s">
+      <c r="A4" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="13" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="15" t="s">
+      <c r="A5" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="14" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="15" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Rutas_proyecto.xlsx
+++ b/Rutas_proyecto.xlsx
@@ -56,7 +56,7 @@
     <t xml:space="preserve">como usuario quiero registrarme en la pagina para poder crear camisetas personalizadas y acceder a mi cuenta </t>
   </si>
   <si>
-    <t xml:space="preserve">SELECT nombre, contrasenya FROM usuario WHERE nombre = %;</t>
+    <t xml:space="preserve">SELECT nombre FROM idusuario, usuario WHERE nombre = %s AND contrasenya = %s;</t>
   </si>
   <si>
     <t xml:space="preserve">nombre, contraseña</t>
@@ -65,7 +65,7 @@
     <t xml:space="preserve">GET</t>
   </si>
   <si>
-    <t xml:space="preserve">SELECT nombre, correo FROM usuario WHERE nombre = %;</t>
+    <t xml:space="preserve">SELECT nombre, correo FROM usuario WHERE idusuario = %s;</t>
   </si>
   <si>
     <t xml:space="preserve">nombre,correo</t>
@@ -92,7 +92,7 @@
     <t xml:space="preserve">[iddisenyo, nombredisenyo, descripcion, usuarioid]</t>
   </si>
   <si>
-    <t xml:space="preserve">INSERT INTO disenyo(iddisenyo, nombredisenyo, descripcion, usuarioid) VALUES (%, %, %, %, %) WHERE usuarioid = %;</t>
+    <t xml:space="preserve">INSERT INTO disenyo(iddisenyo, nombredisenyo, descripcion, usuarioid) VALUES (%s, %s, %s, %s, %s) WHERE usuarioid = %s;</t>
   </si>
   <si>
     <t xml:space="preserve">/clientes/diseños</t>
@@ -104,7 +104,7 @@
     <t xml:space="preserve">[nombrediseño, descripcion]</t>
   </si>
   <si>
-    <t xml:space="preserve">UPDATE disenyo SET nombredisenyo=?, descripcion=? WHERE iddisenyo=?;</t>
+    <t xml:space="preserve">UPDATE disenyo SET nombredisenyo=%s, descripcion=%s, WHERE iddisenyo=%s;</t>
   </si>
   <si>
     <t xml:space="preserve">/clientes/disenos/{diseñoId}</t>
@@ -113,7 +113,7 @@
     <t xml:space="preserve">Como cliente quiero editar mis diseños.</t>
   </si>
   <si>
-    <t xml:space="preserve">SELECT fechapedido, estadopedido FROM pedido WHERE idpedido;</t>
+    <t xml:space="preserve">SELECT fechapedido, estadopedido FROM pedido WHERE idpedido = %s;</t>
   </si>
   <si>
     <t xml:space="preserve">estadopedido,fechapedido</t>
@@ -125,7 +125,7 @@
     <t xml:space="preserve"> Como cliente quiero seguir el estado de mi pedido para que pueda saber cuándo lo recibiré.</t>
   </si>
   <si>
-    <t xml:space="preserve">SELECT nombreproducto, precio, imagen FROM producto;</t>
+    <t xml:space="preserve">SELECT nombreproducto, precio, imagen FROM producto = %s;</t>
   </si>
   <si>
     <t xml:space="preserve">nombreproducto,precio,imagen</t>
@@ -140,7 +140,7 @@
     <t xml:space="preserve">Como administrador quiero gestionar mi inventario de materiales para asegurarme de tener suficientes existencias del producto.</t>
   </si>
   <si>
-    <t xml:space="preserve">UPDATE producto SET  nombreproducto=%, precio=%, imagen=% WHERE imagen = %;</t>
+    <t xml:space="preserve">UPDATE producto SET  nombreproducto=%s, precio=%s, imagen=%s, WHERE imagen = %s;</t>
   </si>
   <si>
     <t xml:space="preserve"> PUT</t>
@@ -149,7 +149,7 @@
     <t xml:space="preserve">/admin/inventario/{materialId}</t>
   </si>
   <si>
-    <t xml:space="preserve">DELETE FROM producto WHERE imagen=%;</t>
+    <t xml:space="preserve">DELETE FROM producto WHERE idproducto=%s;</t>
   </si>
   <si>
     <t xml:space="preserve">Grupo</t>
@@ -386,16 +386,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -669,8 +669,8 @@
   </sheetPr>
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -722,7 +722,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
         <v>11</v>
@@ -893,67 +893,67 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0"/>
-      <c r="B13" s="0"/>
-      <c r="C13" s="0"/>
-      <c r="D13" s="0"/>
-      <c r="E13" s="0"/>
-      <c r="F13" s="0"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0"/>
-      <c r="B14" s="0"/>
-      <c r="C14" s="0"/>
-      <c r="D14" s="0"/>
-      <c r="E14" s="0"/>
-      <c r="F14" s="0"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0"/>
-      <c r="B15" s="0"/>
-      <c r="C15" s="0"/>
-      <c r="D15" s="0"/>
-      <c r="E15" s="0"/>
-      <c r="F15" s="0"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0"/>
-      <c r="B16" s="0"/>
-      <c r="C16" s="0"/>
-      <c r="D16" s="0"/>
-      <c r="E16" s="0"/>
-      <c r="F16" s="0"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0"/>
-      <c r="B17" s="0"/>
-      <c r="C17" s="0"/>
-      <c r="D17" s="0"/>
-      <c r="E17" s="0"/>
-      <c r="F17" s="0"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="10" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="11" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="11" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="11" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="11" t="s">
         <v>47</v>
       </c>
     </row>
@@ -985,8 +985,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="11" width="117.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="11" width="68.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="9" width="117.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="9" width="68.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
